--- a/data/4-created-database/publications-searches-metadata.xlsx
+++ b/data/4-created-database/publications-searches-metadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>form_id</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t xml:space="preserve">For the original project: trial-level discrepancies between reviewers regarding the existence of a publication or which is the earliest publication, taking into account date peculiarities and number of matching criteria (4/5 is considered "near match"). </t>
+  </si>
+  <si>
+    <t>extraction_date_latest</t>
+  </si>
+  <si>
+    <t>Latest date for publications searches (latest search among the two independent reviewers)</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,6 +899,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
